--- a/audio/Recess! ADL Game Jam Audio Asset List.xlsx
+++ b/audio/Recess! ADL Game Jam Audio Asset List.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="450" windowWidth="21570" windowHeight="8085"/>
+    <workbookView xWindow="0" yWindow="900" windowWidth="21570" windowHeight="8085"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="71">
   <si>
     <t>Count</t>
   </si>
@@ -84,24 +84,9 @@
     <t>LP</t>
   </si>
   <si>
-    <t>MUS_RoughMusicBaseIdea.wav</t>
-  </si>
-  <si>
-    <t>Revision Needed</t>
-  </si>
-  <si>
     <t>In Progress</t>
   </si>
   <si>
-    <t>MUS_Level2.wav</t>
-  </si>
-  <si>
-    <t>MUS_Level3.wav</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Placeholder / initial Low-level music </t>
-  </si>
-  <si>
     <t xml:space="preserve">Mid-level music </t>
   </si>
   <si>
@@ -235,6 +220,18 @@
   </si>
   <si>
     <t>sound of movement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Low-level music </t>
+  </si>
+  <si>
+    <t>MUS_Level_1.wav</t>
+  </si>
+  <si>
+    <t>MUS_Level_2.wav</t>
+  </si>
+  <si>
+    <t>MUS_Level_3.wav</t>
   </si>
 </sst>
 </file>
@@ -401,6 +398,22 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
           <fgColor rgb="FFD9D2E9"/>
           <bgColor rgb="FFD9D2E9"/>
         </patternFill>
@@ -475,22 +488,6 @@
         <patternFill patternType="solid">
           <fgColor rgb="FF999999"/>
           <bgColor rgb="FF999999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
         </patternFill>
       </fill>
     </dxf>
@@ -807,7 +804,7 @@
   <dimension ref="A1:N100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -872,16 +869,16 @@
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="11" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>19</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="G2" s="12" t="s">
         <v>14</v>
@@ -896,10 +893,10 @@
         <v>0</v>
       </c>
       <c r="K2" s="15" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="L2" s="15" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="M2" s="9"/>
       <c r="N2" s="9"/>
@@ -910,16 +907,16 @@
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="11" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>19</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="G3" s="12" t="s">
         <v>14</v>
@@ -934,10 +931,10 @@
         <v>0</v>
       </c>
       <c r="K3" s="15" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="L3" s="15" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="M3" s="10"/>
       <c r="N3" s="10"/>
@@ -948,16 +945,16 @@
       </c>
       <c r="B4" s="10"/>
       <c r="C4" s="11" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D4" s="12" t="s">
         <v>19</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="G4" s="12" t="s">
         <v>14</v>
@@ -972,10 +969,10 @@
         <v>0</v>
       </c>
       <c r="K4" s="15" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="L4" s="15" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="M4" s="10"/>
       <c r="N4" s="10"/>
@@ -986,16 +983,16 @@
       </c>
       <c r="B5" s="10"/>
       <c r="C5" s="11" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D5" s="12" t="s">
         <v>19</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="G5" s="12" t="s">
         <v>14</v>
@@ -1004,7 +1001,7 @@
         <v>20</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="J5" s="14">
         <v>0</v>
@@ -1042,16 +1039,16 @@
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="11" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G7" s="17" t="s">
         <v>14</v>
@@ -1066,10 +1063,10 @@
         <v>0</v>
       </c>
       <c r="K7" s="15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L7" s="15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M7" s="10"/>
       <c r="N7" s="10"/>
@@ -1080,16 +1077,16 @@
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="11" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G8" s="17" t="s">
         <v>14</v>
@@ -1118,16 +1115,16 @@
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="11" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G9" s="17" t="s">
         <v>14</v>
@@ -1156,16 +1153,16 @@
       </c>
       <c r="B10" s="10"/>
       <c r="C10" s="11" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G10" s="17" t="s">
         <v>14</v>
@@ -1194,16 +1191,16 @@
       </c>
       <c r="B11" s="10"/>
       <c r="C11" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="17" t="s">
         <v>33</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="F11" s="17" t="s">
-        <v>38</v>
       </c>
       <c r="G11" s="17" t="s">
         <v>14</v>
@@ -1232,16 +1229,16 @@
       </c>
       <c r="B12" s="10"/>
       <c r="C12" s="11" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D12" s="17" t="s">
         <v>13</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G12" s="17" t="s">
         <v>14</v>
@@ -1250,7 +1247,7 @@
         <v>15</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="J12" s="17">
         <v>0</v>
@@ -1270,16 +1267,16 @@
       </c>
       <c r="B13" s="10"/>
       <c r="C13" s="11" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G13" s="17" t="s">
         <v>14</v>
@@ -1294,10 +1291,10 @@
         <v>0</v>
       </c>
       <c r="K13" s="15" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="L13" s="15" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="M13" s="10"/>
       <c r="N13" s="10"/>
@@ -1308,16 +1305,16 @@
       </c>
       <c r="B14" s="10"/>
       <c r="C14" s="11" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="F14" s="17" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G14" s="17" t="s">
         <v>14</v>
@@ -1326,7 +1323,7 @@
         <v>15</v>
       </c>
       <c r="I14" s="13" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="J14" s="17">
         <v>0</v>
@@ -1346,16 +1343,16 @@
       </c>
       <c r="B15" s="10"/>
       <c r="C15" s="11" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F15" s="17" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="G15" s="17" t="s">
         <v>14</v>
@@ -1384,16 +1381,16 @@
       </c>
       <c r="B16" s="10"/>
       <c r="C16" s="11" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G16" s="17" t="s">
         <v>14</v>
@@ -1402,7 +1399,7 @@
         <v>15</v>
       </c>
       <c r="I16" s="13" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="J16" s="17">
         <v>1</v>
@@ -1422,16 +1419,16 @@
       </c>
       <c r="B17" s="10"/>
       <c r="C17" s="11" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="F17" s="17" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="G17" s="17" t="s">
         <v>14</v>
@@ -1460,16 +1457,16 @@
       </c>
       <c r="B18" s="10"/>
       <c r="C18" s="11" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="F18" s="17" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="G18" s="17" t="s">
         <v>14</v>
@@ -1478,7 +1475,7 @@
         <v>15</v>
       </c>
       <c r="I18" s="13" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="J18" s="17">
         <v>0</v>
@@ -1498,16 +1495,16 @@
       </c>
       <c r="B19" s="10"/>
       <c r="C19" s="11" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E19" s="17" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F19" s="17" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="G19" s="17" t="s">
         <v>14</v>
@@ -1536,16 +1533,16 @@
       </c>
       <c r="B20" s="10"/>
       <c r="C20" s="11" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E20" s="17" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F20" s="17" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="G20" s="17" t="s">
         <v>14</v>
@@ -1592,16 +1589,16 @@
       </c>
       <c r="B22" s="10"/>
       <c r="C22" s="17" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D22" s="17" t="s">
         <v>13</v>
       </c>
       <c r="E22" s="17" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F22" s="17" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="G22" s="17" t="s">
         <v>14</v>
@@ -1630,16 +1627,16 @@
       </c>
       <c r="B23" s="10"/>
       <c r="C23" s="17" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D23" s="17" t="s">
         <v>13</v>
       </c>
       <c r="E23" s="17" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F23" s="17" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="G23" s="17" t="s">
         <v>14</v>
@@ -3050,62 +3047,62 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:N1 K2:N11 A12:N100 A2:I11 J6">
-    <cfRule type="containsBlanks" dxfId="9" priority="1">
+    <cfRule type="containsBlanks" dxfId="11" priority="1">
       <formula>LEN(TRIM(A1))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1:K3 L2:L3 K3:L100 J6">
-    <cfRule type="containsText" dxfId="8" priority="2" operator="containsText" text="Approved">
+    <cfRule type="containsText" dxfId="10" priority="2" operator="containsText" text="Approved">
       <formula>NOT(ISERROR(SEARCH(("Approved"),(J1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:L100 J6">
-    <cfRule type="containsText" dxfId="7" priority="3" operator="containsText" text="Not Started">
+    <cfRule type="containsText" dxfId="9" priority="3" operator="containsText" text="Not Started">
       <formula>NOT(ISERROR(SEARCH(("Not Started"),(J2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1:K3 L2:L3 K3:L100 J6">
-    <cfRule type="containsText" dxfId="6" priority="4" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="8" priority="4" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH(("In Progress"),(J1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:L100 J6">
-    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="Awaiting Approval">
+    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="Awaiting Approval">
       <formula>NOT(ISERROR(SEARCH(("Awaiting Approval"),(J2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:L100 J6">
-    <cfRule type="containsText" dxfId="4" priority="6" operator="containsText" text="Revision Needed">
+    <cfRule type="containsText" dxfId="6" priority="6" operator="containsText" text="Revision Needed">
       <formula>NOT(ISERROR(SEARCH(("Revision Needed"),(J2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I100">
-    <cfRule type="containsText" dxfId="3" priority="7" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH(("Low"),(I2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I100">
-    <cfRule type="containsText" dxfId="2" priority="8" operator="containsText" text="Med">
+    <cfRule type="containsText" dxfId="4" priority="8" operator="containsText" text="Med">
       <formula>NOT(ISERROR(SEARCH(("Med"),(I2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I100">
-    <cfRule type="containsText" dxfId="1" priority="9" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="3" priority="9" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH(("High"),(I2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I100">
-    <cfRule type="containsText" dxfId="0" priority="10" operator="containsText" text="Maybe">
+    <cfRule type="containsText" dxfId="2" priority="10" operator="containsText" text="Maybe">
       <formula>NOT(ISERROR(SEARCH(("Maybe"),(I2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A100">
-    <cfRule type="notContainsBlanks" dxfId="11" priority="11">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="11">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2">
-    <cfRule type="notContainsBlanks" dxfId="10" priority="12">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="12">
       <formula>LEN(TRIM(M2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/audio/Recess! ADL Game Jam Audio Asset List.xlsx
+++ b/audio/Recess! ADL Game Jam Audio Asset List.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="70">
   <si>
     <t>Count</t>
   </si>
@@ -84,9 +84,6 @@
     <t>LP</t>
   </si>
   <si>
-    <t>In Progress</t>
-  </si>
-  <si>
     <t xml:space="preserve">Mid-level music </t>
   </si>
   <si>
@@ -108,21 +105,6 @@
     <t>SFX</t>
   </si>
   <si>
-    <t>SFX_Bump_01</t>
-  </si>
-  <si>
-    <t>SFX_Bump_02</t>
-  </si>
-  <si>
-    <t>SFX_Bump_03</t>
-  </si>
-  <si>
-    <t>SFX_Bump_04</t>
-  </si>
-  <si>
-    <t>SFX_Bump_05</t>
-  </si>
-  <si>
     <t>AI Interaction</t>
   </si>
   <si>
@@ -147,9 +129,6 @@
     <t>Recess bell maybe with kids screaming</t>
   </si>
   <si>
-    <t>SFX_New_Ally_Sound_01</t>
-  </si>
-  <si>
     <t>Awaiting Approval</t>
   </si>
   <si>
@@ -189,12 +168,6 @@
     <t>MUS</t>
   </si>
   <si>
-    <t>Mus_Player_Win</t>
-  </si>
-  <si>
-    <t>Mus_Player_Lose</t>
-  </si>
-  <si>
     <t>make a new friend positive vibe sound</t>
   </si>
   <si>
@@ -232,6 +205,30 @@
   </si>
   <si>
     <t>MUS_Level_3.wav</t>
+  </si>
+  <si>
+    <t>SFX_Bump_05.mp3</t>
+  </si>
+  <si>
+    <t>SFX_Bump_01.mp3</t>
+  </si>
+  <si>
+    <t>SFX_Bump_02.mp3</t>
+  </si>
+  <si>
+    <t>SFX_Bump_03.mp3</t>
+  </si>
+  <si>
+    <t>SFX_Bump_04.mp3</t>
+  </si>
+  <si>
+    <t>SFX_New_Ally_Sound_01.wav</t>
+  </si>
+  <si>
+    <t>Mus_Player_Win.mp3</t>
+  </si>
+  <si>
+    <t>Mus_Player_Lose.mp3</t>
   </si>
 </sst>
 </file>
@@ -804,7 +801,7 @@
   <dimension ref="A1:N100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="K14" sqref="C14:K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -869,16 +866,16 @@
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="11" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>19</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="G2" s="12" t="s">
         <v>14</v>
@@ -893,10 +890,10 @@
         <v>0</v>
       </c>
       <c r="K2" s="15" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="L2" s="15" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="M2" s="9"/>
       <c r="N2" s="9"/>
@@ -907,16 +904,16 @@
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="11" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>19</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="G3" s="12" t="s">
         <v>14</v>
@@ -931,10 +928,10 @@
         <v>0</v>
       </c>
       <c r="K3" s="15" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="L3" s="15" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="M3" s="10"/>
       <c r="N3" s="10"/>
@@ -945,16 +942,16 @@
       </c>
       <c r="B4" s="10"/>
       <c r="C4" s="11" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D4" s="12" t="s">
         <v>19</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="G4" s="12" t="s">
         <v>14</v>
@@ -969,10 +966,10 @@
         <v>0</v>
       </c>
       <c r="K4" s="15" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="L4" s="15" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="M4" s="10"/>
       <c r="N4" s="10"/>
@@ -983,16 +980,16 @@
       </c>
       <c r="B5" s="10"/>
       <c r="C5" s="11" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D5" s="12" t="s">
         <v>19</v>
       </c>
       <c r="E5" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="12" t="s">
         <v>24</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>25</v>
       </c>
       <c r="G5" s="12" t="s">
         <v>14</v>
@@ -1001,7 +998,7 @@
         <v>20</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J5" s="14">
         <v>0</v>
@@ -1039,16 +1036,16 @@
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="17" t="s">
-        <v>34</v>
-      </c>
       <c r="E7" s="17" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="G7" s="17" t="s">
         <v>14</v>
@@ -1063,10 +1060,10 @@
         <v>0</v>
       </c>
       <c r="K7" s="15" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="L7" s="15" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="M7" s="10"/>
       <c r="N7" s="10"/>
@@ -1077,16 +1074,16 @@
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="17" t="s">
-        <v>34</v>
-      </c>
       <c r="E8" s="17" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="G8" s="17" t="s">
         <v>14</v>
@@ -1101,10 +1098,10 @@
         <v>0</v>
       </c>
       <c r="K8" s="15" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="L8" s="15" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="M8" s="10"/>
       <c r="N8" s="10"/>
@@ -1115,16 +1112,16 @@
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="17" t="s">
-        <v>34</v>
-      </c>
       <c r="E9" s="17" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="G9" s="17" t="s">
         <v>14</v>
@@ -1139,10 +1136,10 @@
         <v>0</v>
       </c>
       <c r="K9" s="15" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="L9" s="15" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="M9" s="10"/>
       <c r="N9" s="10"/>
@@ -1153,16 +1150,16 @@
       </c>
       <c r="B10" s="10"/>
       <c r="C10" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="17" t="s">
-        <v>34</v>
-      </c>
       <c r="E10" s="17" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="G10" s="17" t="s">
         <v>14</v>
@@ -1177,10 +1174,10 @@
         <v>0</v>
       </c>
       <c r="K10" s="15" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="L10" s="15" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="M10" s="10"/>
       <c r="N10" s="10"/>
@@ -1191,16 +1188,16 @@
       </c>
       <c r="B11" s="10"/>
       <c r="C11" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="17" t="s">
-        <v>34</v>
-      </c>
       <c r="E11" s="17" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F11" s="17" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="G11" s="17" t="s">
         <v>14</v>
@@ -1215,10 +1212,10 @@
         <v>0</v>
       </c>
       <c r="K11" s="15" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="L11" s="15" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="M11" s="10"/>
       <c r="N11" s="10"/>
@@ -1229,16 +1226,16 @@
       </c>
       <c r="B12" s="10"/>
       <c r="C12" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D12" s="17" t="s">
         <v>13</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G12" s="17" t="s">
         <v>14</v>
@@ -1247,7 +1244,7 @@
         <v>15</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J12" s="17">
         <v>0</v>
@@ -1267,16 +1264,16 @@
       </c>
       <c r="B13" s="10"/>
       <c r="C13" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="G13" s="17" t="s">
         <v>14</v>
@@ -1291,10 +1288,10 @@
         <v>0</v>
       </c>
       <c r="K13" s="15" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="L13" s="15" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="M13" s="10"/>
       <c r="N13" s="10"/>
@@ -1305,16 +1302,16 @@
       </c>
       <c r="B14" s="10"/>
       <c r="C14" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D14" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="E14" s="17" t="s">
-        <v>58</v>
-      </c>
       <c r="F14" s="17" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G14" s="17" t="s">
         <v>14</v>
@@ -1323,7 +1320,7 @@
         <v>15</v>
       </c>
       <c r="I14" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J14" s="17">
         <v>0</v>
@@ -1343,16 +1340,16 @@
       </c>
       <c r="B15" s="10"/>
       <c r="C15" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="F15" s="17" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G15" s="17" t="s">
         <v>14</v>
@@ -1381,16 +1378,16 @@
       </c>
       <c r="B16" s="10"/>
       <c r="C16" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G16" s="17" t="s">
         <v>14</v>
@@ -1399,7 +1396,7 @@
         <v>15</v>
       </c>
       <c r="I16" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J16" s="17">
         <v>1</v>
@@ -1419,16 +1416,16 @@
       </c>
       <c r="B17" s="10"/>
       <c r="C17" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="F17" s="17" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="G17" s="17" t="s">
         <v>14</v>
@@ -1457,16 +1454,16 @@
       </c>
       <c r="B18" s="10"/>
       <c r="C18" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="F18" s="17" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G18" s="17" t="s">
         <v>14</v>
@@ -1475,7 +1472,7 @@
         <v>15</v>
       </c>
       <c r="I18" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J18" s="17">
         <v>0</v>
@@ -1495,16 +1492,16 @@
       </c>
       <c r="B19" s="10"/>
       <c r="C19" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="E19" s="17" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="F19" s="17" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="G19" s="17" t="s">
         <v>14</v>
@@ -1533,16 +1530,16 @@
       </c>
       <c r="B20" s="10"/>
       <c r="C20" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="E20" s="17" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="F20" s="17" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="G20" s="17" t="s">
         <v>14</v>
@@ -1589,16 +1586,16 @@
       </c>
       <c r="B22" s="10"/>
       <c r="C22" s="17" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D22" s="17" t="s">
         <v>13</v>
       </c>
       <c r="E22" s="17" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="F22" s="17" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="G22" s="17" t="s">
         <v>14</v>
@@ -1613,10 +1610,10 @@
         <v>0</v>
       </c>
       <c r="K22" s="15" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="L22" s="15" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="M22" s="10"/>
       <c r="N22" s="10"/>
@@ -1627,16 +1624,16 @@
       </c>
       <c r="B23" s="10"/>
       <c r="C23" s="17" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D23" s="17" t="s">
         <v>13</v>
       </c>
       <c r="E23" s="17" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="F23" s="17" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="G23" s="17" t="s">
         <v>14</v>
@@ -1651,10 +1648,10 @@
         <v>0</v>
       </c>
       <c r="K23" s="15" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="L23" s="15" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="M23" s="10"/>
       <c r="N23" s="10"/>
@@ -3046,32 +3043,32 @@
       <c r="N100" s="10"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:N1 K2:N11 A12:N100 A2:I11 J6">
+  <conditionalFormatting sqref="A1:N1 A2:I11 J6 K2:N11 A12:N100">
     <cfRule type="containsBlanks" dxfId="11" priority="1">
       <formula>LEN(TRIM(A1))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K1:K3 L2:L3 K3:L100 J6">
+  <conditionalFormatting sqref="K1:K3 L2:L3 J6 K3:L100">
     <cfRule type="containsText" dxfId="10" priority="2" operator="containsText" text="Approved">
       <formula>NOT(ISERROR(SEARCH(("Approved"),(J1))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:L100 J6">
+  <conditionalFormatting sqref="J6 K2:L100">
     <cfRule type="containsText" dxfId="9" priority="3" operator="containsText" text="Not Started">
       <formula>NOT(ISERROR(SEARCH(("Not Started"),(J2))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K1:K3 L2:L3 K3:L100 J6">
+  <conditionalFormatting sqref="K1:K3 L2:L3 J6 K3:L100">
     <cfRule type="containsText" dxfId="8" priority="4" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH(("In Progress"),(J1))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:L100 J6">
+  <conditionalFormatting sqref="J6 K2:L100">
     <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="Awaiting Approval">
       <formula>NOT(ISERROR(SEARCH(("Awaiting Approval"),(J2))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:L100 J6">
+  <conditionalFormatting sqref="J6 K2:L100">
     <cfRule type="containsText" dxfId="6" priority="6" operator="containsText" text="Revision Needed">
       <formula>NOT(ISERROR(SEARCH(("Revision Needed"),(J2))))</formula>
     </cfRule>
@@ -3107,7 +3104,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="K2:L100 J6">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J6 K2:L100">
       <formula1>"Not Started,In Progress,Awaiting Approval,Approved,Revision Needed"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="One Shot or Looping Sound" sqref="H2:H13">
